--- a/LIDC-IDRI/patient_report.xlsx
+++ b/LIDC-IDRI/patient_report.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>report</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be Head &amp; Neck Cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is Head &amp; Neck Cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Head &amp; Neck . The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Head &amp; Neck . The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by progression or response. The primary tumor site was found to be Lung Cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by progression or response, The primary tumor site for metastatic disease is Lung Cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by unknown. The primary tumor site was found to be Uterine Cancer.</t>
+          <t>The patient was diagnosed with malignant metastatic, The primary tumor site for metastatic disease is Uterine Cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be urothelial carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is urothelial carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Testis . The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Testis . The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by unknown. The primary tumor site was found to be Prostate .</t>
+          <t>The patient was diagnosed with malignant metastatic, The primary tumor site for metastatic disease is Prostate . The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be colon. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is colon. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be Metastatic colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is Metastatic colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be  Basaloid squamous carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is  Basaloid squamous carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be Lung Cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is Lung Cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be osteosarcoma.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is osteosarcoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be chondrosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is chondrosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be thyroid carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is thyroid carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be pancreatic cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is pancreatic cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be gallbladder. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is gallbladder. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be colorectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is colorectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be vaginal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is vaginal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be stage III lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is stage III lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be LGL (T cell lymphoma). The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is LGL (T cell lymphoma). The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by surgical resection. The primary tumor site was found to be organizing pneumonia, also leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by surgical resection, The primary tumor site for metastatic disease is organizing pneumonia, also leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be granular cell tumor of the trachea. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is granular cell tumor of the trachea. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The second nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The second nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be bladder.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is bladder. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be thyroid carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is thyroid carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be nonsmall cell lung cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be melanoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is melanoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be LGL (T cell lymphoma). The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is LGL (T cell lymphoma). The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be adenoid cystic carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is adenoid cystic carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by biopsy. The primary tumor site was found to be Pulmonary cryptococcosis. The first nodule was diagnosed as benign or non-malignant disease, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by biopsy, The primary tumor site for metastatic disease is Pulmonary cryptococcosis. The first nodule was diagnosed as benign or non-malignant disease, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be Ewing sarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is Ewing sarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be HCC. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is HCC. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by surgical resection. The primary tumor site was found to be organizing pneumonia, also leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by surgical resection, The primary tumor site for metastatic disease is organizing pneumonia, also leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be ovarian cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is ovarian cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be renal cell carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is renal cell carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be giant cell tumor. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is giant cell tumor. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be metastatic rectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is metastatic rectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Colon. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Colon. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be lung cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be Small cell osteosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is Small cell osteosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be testicular cancer . The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is testicular cancer . The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non small cell lung, lymphoma. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non small cell lung, lymphoma. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Left chest wall chondrosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Left chest wall chondrosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be metastatic melanoma.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is metastatic melanoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be rectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is rectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Breast cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Breast cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be mycosis fungoides.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is mycosis fungoides. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be non small cell lung . The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is non small cell lung . The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be lymphoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is lymphoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be colorectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is colorectal cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be colon cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is colon cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be melanoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is melanoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be liposarcoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is liposarcoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by progression or response. The primary tumor site was found to be leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by progression or response, The primary tumor site for metastatic disease is leukemia. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be prostate.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is prostate. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be breast cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is breast cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be rectal.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is rectal. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be cervix.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is cervix. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Medullary thyroid cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Medullary thyroid cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be renal cell carcinoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The second nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is renal cell carcinoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The second nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be leukemia.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is leukemia. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be rhabdomyosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is rhabdomyosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be Leiomyosarcoma.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is Leiomyosarcoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by progression or response. The primary tumor site was found to be carcinoid. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by progression or response, The primary tumor site for metastatic disease is carcinoid. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be prostate, lymphoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is prostate, lymphoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be Left Femur Chondrosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is Left Femur Chondrosarcoma. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be tongue squamous.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is tongue squamous. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be mantle cell lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is mantle cell lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be rectal neuroendocrine. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is rectal neuroendocrine. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be melanoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is melanoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be laryngeal .</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is laryngeal . The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be breast.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is breast. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be neck - squamous. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is neck - squamous. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by progression or response. The primary tumor site was found to be head and neck squamous cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by progression or response, The primary tumor site for metastatic disease is head and neck squamous cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is colon cancer. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be colon cancer, lung cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is colon cancer, lung cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by progression or response. The primary tumor site was found to be Hodgkin's lymphoma . The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by progression or response, The primary tumor site for metastatic disease is Hodgkin's lymphoma . The first nodule was diagnosed as benign or non-malignant disease, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be Non small cell lung left lower lobe. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is Non small cell lung left lower lobe. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be mandible squamous.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is mandible squamous. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be Melanoma . The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is Melanoma . The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be Breast cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is Breast cancer. The first nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is non small cell lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be leiomyosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is leiomyosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be mantle cell lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is mantle cell lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be Melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is Melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be primary breast cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is primary breast cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be Breast Ca and RCC.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is Breast Ca and RCC. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Tonsil cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Tonsil cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be esophageal lesion. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is esophageal lesion. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be multiple primary cancers. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is multiple primary cancers. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be endometrial cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is endometrial cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be CLL.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is CLL. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be lymphoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is lymphoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be skin non-melanoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is skin non-melanoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by biopsy.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is lymphoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by biopsy.</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection. The third nodule was diagnosed as unknown, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is melanoma. The first nodule was diagnosed as malignant metastatic, which was determined by surgical resection. The second nodule was diagnosed as unknown, which was determined by unknown. The third nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be uterus leiomyosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is uterus leiomyosarcoma. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be breast.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is breast. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be glioblastoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is glioblastoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by surgical resection. The primary tumor site was found to be solitary fibrous tumor, also with renal ca. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by surgical resection, The primary tumor site for metastatic disease is solitary fibrous tumor, also with renal ca. The first nodule was diagnosed as benign or non-malignant disease, which was determined by surgical resection. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be carcinoid lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is carcinoid lung. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be squamous cell carcinoma/non-small cell.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is squamous cell carcinoma/non-small cell.</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be RUL. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is RUL. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection. The second nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be LUL adeno CA Stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is LUL adeno CA Stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be T1N0M0 stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is T1N0M0 stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be cervical cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is cervical cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by biopsy. The primary tumor site was found to be reactive mesothelial cells.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by biopsy, The primary tumor site for metastatic disease is reactive mesothelial cells.</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non-small cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non-small cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is nonsmall cell lung cancer. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be RLL T2N0M1 adeno ca. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is RLL T2N0M1 adeno ca. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by biopsy. The primary tumor site was found to be focal fibrosis.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by biopsy, The primary tumor site for metastatic disease is focal fibrosis.</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be Adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is Adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be small cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is small cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule. The primary tumor site was found to be Neuroendocrine cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule, The primary tumor site for metastatic disease is Neuroendocrine cancer. The first nodule was diagnosed as benign or non-malignant disease, which was determined by review of radiological images to show 2 years of stable nodule.</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be RUL stage 2B NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is RUL stage 2B NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by biopsy. The primary tumor site was found to be reactive mesothelial cells.</t>
+          <t>The patient was diagnosed with unknown, which was determined by biopsy, The primary tumor site for metastatic disease is reactive mesothelial cells.</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be R Squamous cell, stage 3A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is R Squamous cell, stage 3A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be RUL Squamous cell stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is RUL Squamous cell stage 1A. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having benign or non-malignant disease, which was determined by surgical resection. The primary tumor site was found to be Histoplasmosis with necrotizing granulomas.</t>
+          <t>The patient was diagnosed with benign or non-malignant disease, which was determined by surgical resection, The primary tumor site for metastatic disease is Histoplasmosis with necrotizing granulomas.</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non-small cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non-small cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be squamous cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is squamous cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be esophageal carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is esophageal carcinoma. The first nodule was diagnosed as malignant metastatic, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be Adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is Adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be breast cancer.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is breast cancer. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be Adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is Adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by surgical resection. The primary tumor site was found to be recurrent/metastatic.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by surgical resection, The primary tumor site for metastatic disease is recurrent/metastatic.</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be  RLL NSCLC stage 1A.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is  RLL NSCLC stage 1A.</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be small cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is small cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be poorly differentiated adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is poorly differentiated adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be RUL Small cell. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is RUL Small cell. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be Adenocarcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is Adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be LUL Large cell CA. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is LUL Large cell CA. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by biopsy. The primary tumor site was found to be non-small cell carcinoma.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by biopsy, The primary tumor site for metastatic disease is non-small cell carcinoma.</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant, primary lung cancer, which was determined by surgical resection. The primary tumor site was found to be LUL NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
+          <t>The patient was diagnosed with malignant, primary lung cancer, which was determined by surgical resection, The primary tumor site for metastatic disease is LUL NSCLC. The first nodule was diagnosed as malignant, primary lung cancer, which was determined by surgical resection.</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having unknown, which was determined by unknown. The primary tumor site was found to be lymphoma.</t>
+          <t>The patient was diagnosed with unknown, The primary tumor site for metastatic disease is lymphoma. The first nodule was diagnosed as unknown, which was determined by unknown.</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>The patient was diagnosed as having malignant metastatic, which was determined by biopsy. The primary tumor site was found to be small-cell carcinoma of the tongue. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
+          <t>The patient was diagnosed with malignant metastatic, which was determined by biopsy, The primary tumor site for metastatic disease is small-cell carcinoma of the tongue. The first nodule was diagnosed as malignant metastatic, which was determined by biopsy. The second nodule was diagnosed as malignant metastatic, which was determined by progression or response.</t>
         </is>
       </c>
     </row>
